--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177829</v>
+        <v>3940022.790763965</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177829</v>
+        <v>3940022.790763965</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707916</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1441,7 +1441,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y11" t="n">
         <v>511.3174326828064</v>
@@ -1475,7 +1475,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I12" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
         <v>408.192915058951</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4706963201402</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2037,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U20" t="n">
         <v>648.751427201877</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>67.808644398718</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="30">
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3562,7 +3562,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
         <v>648.751427201877</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E41" t="n">
         <v>404.3632896068686</v>
@@ -3833,7 +3833,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F42" t="n">
         <v>339.6362423378769</v>
@@ -3845,7 +3845,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="45">
@@ -4082,7 +4082,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4173,10 +4173,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.95272115897164</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4348,16 +4348,16 @@
         <v>3950.48856448151</v>
       </c>
       <c r="N2" t="n">
-        <v>4515.531628354182</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O2" t="n">
-        <v>5425.686511294926</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P2" t="n">
-        <v>6261.55383939234</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
@@ -4470,46 +4470,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104934</v>
@@ -4533,13 +4533,13 @@
         <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4570,31 +4570,31 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M5" t="n">
-        <v>3077.533789260046</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4731,22 +4731,22 @@
         <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104934</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4813,22 +4813,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1901.586501346477</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2819.17922466306</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>3301.358424176563</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N8" t="n">
-        <v>3866.401488049235</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O8" t="n">
-        <v>4776.556370989979</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4962,28 +4962,28 @@
         <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5044,19 +5044,19 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L11" t="n">
-        <v>2332.601309399844</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M11" t="n">
-        <v>3864.448844008177</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N11" t="n">
         <v>4728.273641396618</v>
@@ -5077,16 +5077,16 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
         <v>3583.51196363841</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I12" t="n">
         <v>140.96</v>
@@ -5150,28 +5150,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="13">
@@ -5211,34 +5211,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
         <v>140.96</v>
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546172</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048198</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.26062635138</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071715</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.833436134329</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.930400323374</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5287,49 +5287,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1901.58650134652</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2819.179224663103</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>3301.358424176606</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049278</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370990022</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434818</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.11636223704</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.34462518322</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464047</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.40892254296</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818895</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908847</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665748</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.62734043059</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5448,43 +5448,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
         <v>140.96</v>
@@ -5497,19 +5497,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5518,28 +5518,28 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1901.586501346477</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.17922466306</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176563</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049235</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989979</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6135.954275048307</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236997</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5685,22 +5685,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
         <v>140.96</v>
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546172</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048198</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.26062635138</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071715</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.833436134329</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.930400323374</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>3793.50665539136</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000043</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.34462518322</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464047</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.40892254296</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818895</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908847</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665748</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.62734043059</v>
       </c>
     </row>
     <row r="21">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5922,46 +5922,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5992,34 +5992,34 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.82357278602</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.978455726764</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P23" t="n">
-        <v>5987.71793717156</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S23" t="n">
         <v>6683.344625183184</v>
@@ -6159,40 +6159,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
         <v>140.96</v>
@@ -6229,31 +6229,31 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>3793.50665539136</v>
       </c>
       <c r="M26" t="n">
-        <v>2814.780508913348</v>
+        <v>4275.685854904863</v>
       </c>
       <c r="N26" t="n">
-        <v>3379.82357278602</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.978455726764</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P26" t="n">
-        <v>5987.71793717156</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6396,46 +6396,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,52 +6445,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M29" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N29" t="n">
-        <v>4118.58008885974</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6514,7 +6514,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6633,40 +6633,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
         <v>140.96</v>
@@ -6703,22 +6703,22 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>3468.309364968008</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M32" t="n">
-        <v>3950.48856448151</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
-        <v>4515.531628354182</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O32" t="n">
         <v>5638.428524337362</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6870,46 +6870,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>3468.309364968008</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>3950.48856448151</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N35" t="n">
-        <v>4515.531628354182</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O35" t="n">
-        <v>5425.686511294926</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P35" t="n">
-        <v>6261.55383939234</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7107,46 +7107,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7180,28 +7180,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>3468.309364968008</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M38" t="n">
-        <v>3950.48856448151</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N38" t="n">
-        <v>4515.531628354182</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O38" t="n">
-        <v>5425.686511294926</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P38" t="n">
-        <v>6261.55383939234</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7210,22 +7210,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7314,10 +7314,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
         <v>1711.662994324041</v>
@@ -7417,25 +7417,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7481,16 +7481,16 @@
         <v>1569.363247063383</v>
       </c>
       <c r="E42" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
         <v>140.96</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7581,46 +7581,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7654,28 +7654,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L44" t="n">
-        <v>3468.309364968008</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7699,7 +7699,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,25 +7709,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I45" t="n">
         <v>140.96</v>
@@ -7772,13 +7772,13 @@
         <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7821,43 +7821,43 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>332.9552028337761</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.8909222650864</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M5" t="n">
-        <v>265.4073538855533</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1096.663422488788</v>
+        <v>721.3482088181361</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>301.7997308240087</v>
+        <v>1008.117854979872</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>491.4928437002609</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>609.5571242689075</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>61.18810711406104</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,16 +9181,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>341.7591690772407</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.473091295036568</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>746.218703104767</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357657127</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>105.4961355485616</v>
       </c>
       <c r="Q23" t="n">
-        <v>491.4928437002237</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.476835765676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,34 +9877,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.47309129503617</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>746.2187031047674</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>721.3482088181356</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>378.1515460156961</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>214.8909222650861</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>685.9089394605945</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.8909222650864</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
@@ -10843,16 +10843,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>763.2599394199326</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.8909222650864</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>214.8909222650855</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11302,16 +11302,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>644.9963936264489</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M44" t="n">
-        <v>214.890922265086</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23317,19 +23317,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.38834429293496</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23727,7 +23727,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23925,16 +23925,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23943,7 +23943,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R19" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S19" t="n">
         <v>316.45975839138</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.38834429293496</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24435,7 +24435,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X25" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y25" t="n">
         <v>287.4653528494624</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>100.2122833319831</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24754,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24909,7 +24909,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
         <v>287.4653528494624</v>
@@ -25098,10 +25098,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25335,10 +25335,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D40" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E40" t="n">
         <v>280.9809048369565</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25633,13 +25633,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="45">
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26061,10 +26061,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26085,7 +26085,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>114.8619651974535</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611365</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254725</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898083</v>
+        <v>4074063.692137214</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458965</v>
+        <v>5286709.86049238</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019847</v>
+        <v>6499356.028847547</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202704</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557864</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.0264270249</v>
+        <v>10137294.53391302</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226337</v>
+        <v>11349940.70226818</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182425</v>
+        <v>12562586.87062333</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138513</v>
+        <v>13775233.03897849</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094601</v>
+        <v>14987879.20733366</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050691</v>
+        <v>16200525.37568883</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006783</v>
+        <v>17413171.54404401</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962874</v>
+        <v>18625817.71239919</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="C2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245013</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323148</v>
+        <v>761428.9894323129</v>
       </c>
       <c r="G2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323145</v>
       </c>
       <c r="I2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="J2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="L2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="M2" t="n">
         <v>761428.9894323122</v>
       </c>
       <c r="N2" t="n">
+        <v>761428.9894323127</v>
+      </c>
+      <c r="O2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="O2" t="n">
-        <v>761428.9894323121</v>
-      </c>
       <c r="P2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323123</v>
       </c>
     </row>
     <row r="3">
@@ -26429,25 +26429,25 @@
         <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722107</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
         <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850319</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850301</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850319</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850304</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
         <v>13783.46259850301</v>
@@ -26456,16 +26456,16 @@
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26533,43 +26533,43 @@
         <v>588698.6494573476</v>
       </c>
       <c r="D6" t="n">
-        <v>589001.0101272805</v>
+        <v>589001.0101272803</v>
       </c>
       <c r="E6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.1268338097</v>
       </c>
       <c r="F6" t="n">
-        <v>608666.1268338116</v>
+        <v>608666.1268338099</v>
       </c>
       <c r="G6" t="n">
         <v>608666.1268338094</v>
       </c>
       <c r="H6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338114</v>
       </c>
       <c r="I6" t="n">
-        <v>608666.1268338098</v>
+        <v>608666.1268338097</v>
       </c>
       <c r="J6" t="n">
         <v>-11557.87316619069</v>
       </c>
       <c r="K6" t="n">
-        <v>608666.1268338094</v>
+        <v>608666.1268338092</v>
       </c>
       <c r="L6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268338093</v>
       </c>
       <c r="M6" t="n">
         <v>608666.1268338092</v>
       </c>
       <c r="N6" t="n">
+        <v>608666.1268338097</v>
+      </c>
+      <c r="O6" t="n">
         <v>608666.1268338093</v>
       </c>
-      <c r="O6" t="n">
-        <v>608666.1268338091</v>
-      </c>
       <c r="P6" t="n">
-        <v>608666.1268338098</v>
+        <v>608666.1268338093</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27729,13 +27729,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>265.0031986691557</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27927,7 +27927,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>151.1650359809838</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H10" t="n">
-        <v>356.512260443258</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I10" t="n">
         <v>97.40414414470841</v>
@@ -28176,13 +28176,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34840,7 +34840,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>903.7057724021319</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34849,10 +34849,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>676.3257806511687</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35025,13 +35025,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>38.63038883044606</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35062,22 +35062,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M5" t="n">
-        <v>752.457050363839</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>1667.413992057144</v>
+        <v>1292.098778386492</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
         <v>17.57070160869296</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1238.607130132378</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,10 +35320,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35454,7 +35454,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -35472,13 +35472,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,22 +35536,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>872.5503003923645</v>
+        <v>1578.868424548228</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35779,16 +35779,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1238.607130132422</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1180.307693837263</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
@@ -35800,7 +35800,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,31 +36010,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>808.3023935462218</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>803.1940274633231</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>491.5227877733222</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1590.529135526397</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>4.317803129629053e-11</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>949.8065679701916</v>
       </c>
       <c r="Q23" t="n">
-        <v>952.9277020863061</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>6.430770618596463e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,34 +36721,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>575.2236608633918</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>1316.969272673123</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1640.696575424948</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,25 +37195,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1305.012882699114</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>1134.239288871898</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
@@ -37432,19 +37432,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1172.95863593888</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>676.3257806511687</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,7 +37672,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
         <v>1463.98940395526</v>
@@ -37687,16 +37687,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1682.608306026744</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>676.3257806511687</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>1141.752258948503</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38146,16 +38146,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1392.11068005861</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M44" t="n">
-        <v>701.9406187433716</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
